--- a/Notes/014_June7/Offer Letter (MS Word)/data.xlsx
+++ b/Notes/014_June7/Offer Letter (MS Word)/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -105,22 +105,7 @@
     <t>basanti@outlook.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Engineer </t>
-  </si>
-  <si>
-    <t>Basanti ko driver</t>
-  </si>
-  <si>
-    <t>berojgaj</t>
-  </si>
-  <si>
-    <t>software designer</t>
-  </si>
-  <si>
-    <t>owner of pathao</t>
-  </si>
-  <si>
-    <t>owner of microsoft</t>
+    <t>software developer</t>
   </si>
 </sst>
 </file>
@@ -492,7 +477,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +520,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +537,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +554,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +588,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
